--- a/qsdsan/systems/bwaise/results/sysC_lca.xlsx
+++ b/qsdsan/systems/bwaise/results/sysC_lca.xlsx
@@ -1161,13 +1161,13 @@
         <v>29</v>
       </c>
       <c r="B41">
-        <v>1736498.778859109</v>
+        <v>1736500.496966978</v>
       </c>
       <c r="C41">
-        <v>48621965.80805504</v>
+        <v>48622013.91507538</v>
       </c>
       <c r="D41">
-        <v>4.535382786306912</v>
+        <v>26.96215518840097</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1175,13 +1175,13 @@
         <v>30</v>
       </c>
       <c r="B42">
-        <v>27415.81906767876</v>
+        <v>8403.78499228281</v>
       </c>
       <c r="C42">
-        <v>7265192.052934872</v>
+        <v>2227003.022954945</v>
       </c>
       <c r="D42">
-        <v>0.6776860299349684</v>
+        <v>1.234930359215998</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1195,7 +1195,7 @@
         <v>-3197430.642509053</v>
       </c>
       <c r="D43">
-        <v>-0.2982514518992028</v>
+        <v>-1.773057392029338</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1203,13 +1203,13 @@
         <v>32</v>
       </c>
       <c r="B44">
-        <v>6238076.304062844</v>
+        <v>6956428.727934339</v>
       </c>
       <c r="C44">
-        <v>-33685612.04193936</v>
+        <v>-37564715.13084543</v>
       </c>
       <c r="D44">
-        <v>-3.142142495931634</v>
+        <v>-20.83059909313834</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1223,7 +1223,7 @@
         <v>-1239968.619198864</v>
       </c>
       <c r="D45">
-        <v>-0.1156623809344955</v>
+        <v>-0.6875944381485458</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1237,7 +1237,7 @@
         <v>-1146348.548058954</v>
       </c>
       <c r="D46">
-        <v>-0.1069296435380484</v>
+        <v>-0.6356797048091942</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1245,13 +1245,13 @@
         <v>35</v>
       </c>
       <c r="B47">
-        <v>619130.7163489629</v>
+        <v>619130.716348963</v>
       </c>
       <c r="C47">
         <v>-3343305.8682844</v>
       </c>
       <c r="D47">
-        <v>-0.3118584703924891</v>
+        <v>-1.853948950375062</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1265,7 +1265,7 @@
         <v>-2553905.125752645</v>
       </c>
       <c r="D48">
-        <v>-0.2382243735460122</v>
+        <v>-1.416205969116505</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1273,7 +1273,7 @@
         <v>16</v>
       </c>
       <c r="C49">
-        <v>10720587.01524665</v>
+        <v>1803343.003380991</v>
       </c>
       <c r="D49">
         <v>1</v>
